--- a/data/municipiosCuba.xlsx
+++ b/data/municipiosCuba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58D5FAD5-6812-404A-8F0F-FCB3DE1D4D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3EAEA9-2CC6-4EC2-B5DC-5A231CDF8C60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C3DA604-AF05-4706-AD4E-9FA09FC7EF24}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="municipiosCuba" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">municipiosCuba!$B$1:$C$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">municipiosCuba!$B$1:$C$169</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="175">
   <si>
     <t>Artemisa</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Alquízar</t>
   </si>
   <si>
-    <t>Municipio</t>
-  </si>
-  <si>
     <t>Bahía Honda</t>
   </si>
   <si>
@@ -562,9 +559,6 @@
   </si>
   <si>
     <t>La Habana Vieja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isla de la Juventud </t>
   </si>
 </sst>
 </file>
@@ -615,14 +609,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D3A24-13AA-45FE-A4D5-EC7A9DD23417}">
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,10 +946,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -987,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>43169</v>
@@ -998,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
         <v>50723</v>
@@ -1009,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
         <v>41917</v>
@@ -1020,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>21094</v>
@@ -1031,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>28240</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
         <v>39964</v>
@@ -1053,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
         <v>44920</v>
@@ -1064,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3">
         <v>50483</v>
@@ -1075,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3">
         <v>71654</v>
@@ -1083,10 +1075,10 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3">
         <v>331139</v>
@@ -1094,10 +1086,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
       </c>
       <c r="C14" s="3">
         <v>23495</v>
@@ -1105,10 +1097,10 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3">
         <v>29723</v>
@@ -1116,10 +1108,10 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3">
         <v>70698</v>
@@ -1127,10 +1119,10 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3">
         <v>37249</v>
@@ -1138,10 +1130,10 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3">
         <v>20159</v>
@@ -1149,10 +1141,10 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3">
         <v>36857</v>
@@ -1160,10 +1152,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3">
         <v>15145</v>
@@ -1171,10 +1163,10 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3">
         <v>61195</v>
@@ -1182,10 +1174,10 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3">
         <v>42576</v>
@@ -1193,10 +1185,10 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3">
         <v>30107</v>
@@ -1204,10 +1196,10 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3">
         <v>18196</v>
@@ -1215,10 +1207,10 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3">
         <v>50599</v>
@@ -1226,10 +1218,10 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
       </c>
       <c r="C26" s="3">
         <v>32522</v>
@@ -1237,10 +1229,10 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="3">
         <v>15485</v>
@@ -1248,10 +1240,10 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="3">
         <v>37361</v>
@@ -1259,10 +1251,10 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3">
         <v>155237</v>
@@ -1270,10 +1262,10 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3">
         <v>30546</v>
@@ -1281,10 +1273,10 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3">
         <v>18910</v>
@@ -1292,10 +1284,10 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>25424</v>
@@ -1303,10 +1295,10 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3">
         <v>70126</v>
@@ -1314,10 +1306,10 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="3">
         <v>23039</v>
@@ -1325,10 +1317,10 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3">
         <v>26356</v>
@@ -1336,10 +1328,10 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
       </c>
       <c r="C36" s="3">
         <v>30775</v>
@@ -1347,10 +1339,10 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="3">
         <v>31960</v>
@@ -1358,10 +1350,10 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="3">
         <v>177617</v>
@@ -1369,10 +1361,10 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="3">
         <v>29959</v>
@@ -1380,10 +1372,10 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3">
         <v>48412</v>
@@ -1391,10 +1383,10 @@
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="3">
         <v>21726</v>
@@ -1402,10 +1394,10 @@
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="3">
         <v>32599</v>
@@ -1413,10 +1405,10 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="3">
         <v>33703</v>
@@ -1424,10 +1416,10 @@
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3">
         <v>204950</v>
@@ -1435,10 +1427,10 @@
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="3">
         <v>198436</v>
@@ -1446,10 +1438,10 @@
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="3">
         <v>135155</v>
@@ -1457,10 +1449,10 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="3">
         <v>124577</v>
@@ -1468,10 +1460,10 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="3">
         <v>81488</v>
@@ -1479,10 +1471,10 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="3">
         <v>201888</v>
@@ -1490,10 +1482,10 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="3">
         <v>124365</v>
@@ -1501,10 +1493,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="3">
         <v>175206</v>
@@ -1512,10 +1504,10 @@
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" t="s">
         <v>174</v>
-      </c>
-      <c r="B52" t="s">
-        <v>175</v>
       </c>
       <c r="C52" s="3">
         <v>82120</v>
@@ -1523,10 +1515,10 @@
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="3">
         <v>143720</v>
@@ -1534,10 +1526,10 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="3">
         <v>135313</v>
@@ -1545,10 +1537,10 @@
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="3">
         <v>179222</v>
@@ -1556,10 +1548,10 @@
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="3">
         <v>143148</v>
@@ -1567,10 +1559,10 @@
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="3">
         <v>43800</v>
@@ -1578,10 +1570,10 @@
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="3">
         <v>158092</v>
@@ -1589,10 +1581,10 @@
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>59</v>
       </c>
       <c r="C59" s="3">
         <v>48436</v>
@@ -1600,10 +1592,10 @@
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" s="3">
         <v>239047</v>
@@ -1611,10 +1603,10 @@
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" s="3">
         <v>31319</v>
@@ -1622,10 +1614,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="3">
         <v>43263</v>
@@ -1633,10 +1625,10 @@
     </row>
     <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" s="3">
         <v>20615</v>
@@ -1644,10 +1636,10 @@
     </row>
     <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" s="3">
         <v>46456</v>
@@ -1655,10 +1647,10 @@
     </row>
     <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" s="3">
         <v>60079</v>
@@ -1666,10 +1658,10 @@
     </row>
     <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" s="3">
         <v>127819</v>
@@ -1677,10 +1669,10 @@
     </row>
     <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" s="3">
         <v>32637</v>
@@ -1688,10 +1680,10 @@
     </row>
     <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" s="3">
         <v>42262</v>
@@ -1699,10 +1691,10 @@
     </row>
     <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="3">
         <v>29395</v>
@@ -1710,10 +1702,10 @@
     </row>
     <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="3">
         <v>46611</v>
@@ -1721,10 +1713,10 @@
     </row>
     <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="3">
         <v>55712</v>
@@ -1732,10 +1724,10 @@
     </row>
     <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
         <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>73</v>
       </c>
       <c r="C72" s="3">
         <v>79797</v>
@@ -1743,10 +1735,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73" s="3">
         <v>11168</v>
@@ -1754,10 +1746,10 @@
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74" s="3">
         <v>42342</v>
@@ -1765,10 +1757,10 @@
     </row>
     <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" s="3">
         <v>226689</v>
@@ -1776,10 +1768,10 @@
     </row>
     <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" s="3">
         <v>20991</v>
@@ -1787,10 +1779,10 @@
     </row>
     <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" s="3">
         <v>28709</v>
@@ -1798,10 +1790,10 @@
     </row>
     <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" s="3">
         <v>37441</v>
@@ -1809,10 +1801,10 @@
     </row>
     <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" s="3">
         <v>16413</v>
@@ -1820,10 +1812,10 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="3">
         <v>25941</v>
@@ -1831,10 +1823,10 @@
     </row>
     <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C81" s="3">
         <v>19061</v>
@@ -1842,10 +1834,10 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
         <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>83</v>
       </c>
       <c r="C82" s="3">
         <v>12455</v>
@@ -1853,10 +1845,10 @@
     </row>
     <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" s="3">
         <v>49359</v>
@@ -1864,10 +1856,10 @@
     </row>
     <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84" s="3">
         <v>77883</v>
@@ -1875,10 +1867,10 @@
     </row>
     <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C85" s="3">
         <v>40191</v>
@@ -1886,10 +1878,10 @@
     </row>
     <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C86" s="3">
         <v>54725</v>
@@ -1897,10 +1889,10 @@
     </row>
     <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" s="3">
         <v>31552</v>
@@ -1908,10 +1900,10 @@
     </row>
     <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88" s="3">
         <v>23198</v>
@@ -1919,10 +1911,10 @@
     </row>
     <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89" s="3">
         <v>71126</v>
@@ -1930,10 +1922,10 @@
     </row>
     <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C90" s="3">
         <v>356322</v>
@@ -1941,10 +1933,10 @@
     </row>
     <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91" s="3">
         <v>97197</v>
@@ -1952,10 +1944,10 @@
     </row>
     <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="3">
         <v>73591</v>
@@ -1963,10 +1955,10 @@
     </row>
     <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93" s="3">
         <v>53696</v>
@@ -1974,10 +1966,10 @@
     </row>
     <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94" s="3">
         <v>46630</v>
@@ -1985,837 +1977,826 @@
     </row>
     <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C95" s="3">
         <v>39324</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C96" s="6">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="3">
         <v>83801</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>3</v>
+    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C97" s="3">
-        <v>83801</v>
+        <v>37695</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="3">
-        <v>37695</v>
+        <v>32137</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
       </c>
       <c r="C99" s="3">
-        <v>32137</v>
+        <v>48208</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
       </c>
       <c r="C100" s="3">
-        <v>48208</v>
+        <v>42603</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C101" s="3">
-        <v>42603</v>
+        <v>211596</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C102" s="3">
-        <v>211596</v>
+        <v>41287</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="3">
-        <v>41287</v>
+        <v>29930</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" t="s">
         <v>103</v>
       </c>
       <c r="C104" s="3">
-        <v>29930</v>
+        <v>91879</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C105" s="3">
-        <v>91879</v>
+        <v>27984</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
       </c>
       <c r="C106" s="3">
-        <v>27984</v>
+        <v>156293</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
       </c>
       <c r="C107" s="3">
-        <v>156293</v>
+        <v>10131</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
       </c>
       <c r="C108" s="3">
-        <v>10131</v>
+        <v>69577</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B109" t="s">
         <v>109</v>
       </c>
       <c r="C109" s="3">
-        <v>69577</v>
+        <v>60428</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B110" t="s">
         <v>110</v>
       </c>
       <c r="C110" s="3">
-        <v>60428</v>
+        <v>58060</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111" t="s">
         <v>111</v>
       </c>
       <c r="C111" s="3">
-        <v>58060</v>
+        <v>26704</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B112" t="s">
         <v>112</v>
       </c>
       <c r="C112" s="3">
-        <v>26704</v>
+        <v>23935</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B113" t="s">
         <v>113</v>
       </c>
       <c r="C113" s="3">
-        <v>23935</v>
+        <v>22034</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C114" s="3">
-        <v>22034</v>
+        <v>162426</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C115" s="3">
-        <v>162426</v>
+        <v>30598</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B116" t="s">
         <v>115</v>
       </c>
       <c r="C116" s="3">
-        <v>30598</v>
+        <v>30605</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B117" t="s">
         <v>116</v>
       </c>
       <c r="C117" s="3">
-        <v>30605</v>
+        <v>36068</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C118" s="3">
-        <v>36068</v>
+        <v>27376</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>119</v>
       </c>
       <c r="C119" s="3">
-        <v>27376</v>
+        <v>27963</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
         <v>120</v>
       </c>
       <c r="C120" s="3">
-        <v>27963</v>
+        <v>66301</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
         <v>121</v>
       </c>
       <c r="C121" s="3">
-        <v>66301</v>
+        <v>24527</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
       </c>
       <c r="C122" s="3">
-        <v>24527</v>
+        <v>27340</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
       </c>
       <c r="C123" s="3">
-        <v>27340</v>
+        <v>20529</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B124" t="s">
         <v>124</v>
       </c>
       <c r="C124" s="3">
-        <v>20529</v>
+        <v>24070</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
       </c>
       <c r="C125" s="3">
-        <v>24070</v>
+        <v>30077</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B126" t="s">
         <v>126</v>
       </c>
       <c r="C126" s="3">
-        <v>30077</v>
+        <v>79315</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B127" t="s">
         <v>127</v>
       </c>
       <c r="C127" s="3">
-        <v>79315</v>
+        <v>20755</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B128" t="s">
         <v>128</v>
       </c>
       <c r="C128" s="3">
-        <v>20755</v>
+        <v>35150</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C129" s="3">
-        <v>35150</v>
+        <v>88516</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>131</v>
       </c>
       <c r="C130" s="3">
-        <v>88516</v>
+        <v>35805</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
       </c>
       <c r="C131" s="3">
-        <v>35805</v>
+        <v>34064</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
       </c>
       <c r="C132" s="3">
-        <v>34064</v>
+        <v>38519</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="3">
-        <v>38519</v>
+        <v>23850</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B134" t="s">
         <v>135</v>
       </c>
       <c r="C134" s="3">
-        <v>23850</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C135" s="3">
-        <v>31800</v>
+        <v>192368</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B136" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C136" s="3">
-        <v>192368</v>
+        <v>36398</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B137" t="s">
         <v>137</v>
       </c>
       <c r="C137" s="3">
-        <v>36398</v>
+        <v>43286</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B138" t="s">
         <v>138</v>
       </c>
       <c r="C138" s="3">
-        <v>43286</v>
+        <v>32011</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B139" t="s">
         <v>139</v>
       </c>
       <c r="C139" s="3">
-        <v>32011</v>
+        <v>28938</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C140" s="3">
-        <v>28938</v>
+        <v>65178</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
       </c>
       <c r="C141" s="3">
-        <v>65178</v>
+        <v>32187</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
       </c>
       <c r="C142" s="3">
-        <v>32187</v>
+        <v>43034</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
       </c>
       <c r="C143" s="3">
-        <v>43034</v>
+        <v>16648</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C144" s="3">
-        <v>16648</v>
+        <v>142973</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B145" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C145" s="3">
-        <v>142973</v>
+        <v>33803</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B146" t="s">
         <v>146</v>
       </c>
       <c r="C146" s="3">
-        <v>33803</v>
+        <v>76885</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B147" t="s">
         <v>147</v>
       </c>
       <c r="C147" s="3">
-        <v>76885</v>
+        <v>55072</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C148" s="3">
-        <v>55072</v>
+        <v>105719</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149" s="3">
-        <v>105719</v>
+        <v>34152</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
       </c>
       <c r="C150" s="3">
-        <v>34152</v>
+        <v>34867</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
       </c>
       <c r="C151" s="3">
-        <v>34867</v>
+        <v>122804</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" s="3">
-        <v>122804</v>
+        <v>79192</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C153" s="3">
-        <v>79192</v>
+        <v>509971</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B154" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C154" s="3">
-        <v>509971</v>
+        <v>40299</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B155" t="s">
         <v>155</v>
       </c>
       <c r="C155" s="3">
-        <v>40299</v>
+        <v>91827</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B156" t="s">
         <v>156</v>
       </c>
       <c r="C156" s="3">
-        <v>91827</v>
+        <v>30425</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C157" s="3">
-        <v>30425</v>
+        <v>40435</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" s="3">
-        <v>40435</v>
+        <v>59150</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" s="3">
-        <v>59150</v>
+        <v>27094</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" s="3">
-        <v>27094</v>
+        <v>25567</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" s="3">
-        <v>25567</v>
+        <v>32617</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" s="3">
-        <v>32617</v>
+        <v>63875</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" s="3">
-        <v>63875</v>
+        <v>67408</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" s="3">
-        <v>67408</v>
+        <v>21183</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" s="3">
-        <v>21183</v>
+        <v>52866</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" s="3">
-        <v>52866</v>
+        <v>44019</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" s="3">
-        <v>44019</v>
+        <v>51418</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" s="3">
-        <v>51418</v>
+        <v>246165</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" s="3">
-        <v>246165</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B170" t="s">
-        <v>171</v>
-      </c>
-      <c r="C170" s="3">
         <v>48952</v>
       </c>
     </row>
